--- a/kyf.xlsx
+++ b/kyf.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="201">
   <si>
     <t>货号</t>
   </si>
@@ -22,13 +22,19 @@
     <t>吊牌价</t>
   </si>
   <si>
+    <t>天猫价</t>
+  </si>
+  <si>
     <t>FB1819301</t>
   </si>
   <si>
     <t>运动上衣女秋宽松长袖圆领短款健身跑步瑜伽训练户外纯色休闲卫衣</t>
   </si>
   <si>
-    <t>218</t>
+    <t>228.00</t>
+  </si>
+  <si>
+    <t>109.00</t>
   </si>
   <si>
     <t>FB1819401</t>
@@ -37,7 +43,10 @@
     <t>运动健身衣女秋冬长袖立领半拉链绣花上衣跑步训练速干透气瑜伽服</t>
   </si>
   <si>
-    <t>468</t>
+    <t>498.00</t>
+  </si>
+  <si>
+    <t>238.00</t>
   </si>
   <si>
     <t>FB1819501</t>
@@ -46,7 +55,10 @@
     <t>健身衣女长袖宽松弹力透气秋冬季立领半拉链瑜伽训练跑步运动上衣</t>
   </si>
   <si>
-    <t>388</t>
+    <t>418.00</t>
+  </si>
+  <si>
+    <t>198.00</t>
   </si>
   <si>
     <t>FB1821601</t>
@@ -55,7 +67,10 @@
     <t>健身衣女秋冬长袖网纱拼接运动上衣后背镂空健身房跑步训练紧身衣</t>
   </si>
   <si>
-    <t>138</t>
+    <t>148.00</t>
+  </si>
+  <si>
+    <t>69.80</t>
   </si>
   <si>
     <t>FB1821701</t>
@@ -64,7 +79,10 @@
     <t>七分袖运动上衣女修身显瘦秋冬季圆领个性字母印花休闲体恤女外穿</t>
   </si>
   <si>
-    <t>148</t>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>78.00</t>
   </si>
   <si>
     <t>FD1811801</t>
@@ -73,7 +91,7 @@
     <t>拉链卫衣女新款棉质秋冬季连帽长袖收口户外休闲简约运动外套女</t>
   </si>
   <si>
-    <t>448</t>
+    <t>448.00</t>
   </si>
   <si>
     <t>FD1811901</t>
@@ -88,13 +106,19 @@
     <t>运动外套女棉秋冬新款连帽上衣户外休闲简约纯色外穿防风拉链卫衣</t>
   </si>
   <si>
+    <t>518.00</t>
+  </si>
+  <si>
+    <t>248.00</t>
+  </si>
+  <si>
     <t>FD1819701</t>
   </si>
   <si>
     <t>休闲简约套头衫女秋冬修身圆领长袖透气田径跑步健身训练运动卫衣</t>
   </si>
   <si>
-    <t>228</t>
+    <t>118.00</t>
   </si>
   <si>
     <t>FD1819801</t>
@@ -103,7 +127,7 @@
     <t>卫衣女春秋长袖薄后背镂空瑜伽服跑步圆领短款宽松套头衫露脐上衣</t>
   </si>
   <si>
-    <t>208</t>
+    <t>108.00</t>
   </si>
   <si>
     <t>FD1819901</t>
@@ -118,7 +142,7 @@
     <t>运动上衣女秋冬新品宽松圆领长袖连帽套头衫健身跑步训练休闲卫衣</t>
   </si>
   <si>
-    <t>288</t>
+    <t>308.00</t>
   </si>
   <si>
     <t>FD1820101</t>
@@ -127,7 +151,10 @@
     <t>运动上衣女简约休闲修身显瘦秋季青少年户外跑步健身瑜伽连帽卫衣</t>
   </si>
   <si>
-    <t>398</t>
+    <t>438.00</t>
+  </si>
+  <si>
+    <t>208.00</t>
   </si>
   <si>
     <t>FD1820201</t>
@@ -142,7 +169,10 @@
     <t>运动外套女秋冬长袖立领休闲夹克短款拼接拉链衫户外跑步训练上衣</t>
   </si>
   <si>
-    <t>368</t>
+    <t>398.00</t>
+  </si>
+  <si>
+    <t>188.00</t>
   </si>
   <si>
     <t>FD1820601</t>
@@ -151,7 +181,10 @@
     <t>运动外套女秋冬新款连帽拉链衫长款修身显瘦卫衣开叉户外休闲茄克</t>
   </si>
   <si>
-    <t>548</t>
+    <t>578.00</t>
+  </si>
+  <si>
+    <t>278.00</t>
   </si>
   <si>
     <t>FD1820701</t>
@@ -160,7 +193,10 @@
     <t>运动夹克女秋冬长款卫衣拼色低领双头拉链衫上衣跑步防风休闲外套</t>
   </si>
   <si>
-    <t>428</t>
+    <t>458.00</t>
+  </si>
+  <si>
+    <t>218.00</t>
   </si>
   <si>
     <t>FD1820801</t>
@@ -181,7 +217,7 @@
     <t>卫衣女秋冬季新款侧拉链弹力纯色运动上衣防风立领棉质外穿套头衫</t>
   </si>
   <si>
-    <t>328</t>
+    <t>358.00</t>
   </si>
   <si>
     <t>FD1821501</t>
@@ -190,9 +226,6 @@
     <t>运动夹克女秋冬款长袖拉链开衫瑜伽跑步训练上衣连帽防风休闲外套</t>
   </si>
   <si>
-    <t>318</t>
-  </si>
-  <si>
     <t>FD1821801</t>
   </si>
   <si>
@@ -205,7 +238,10 @@
     <t>运动卫衣女秋冬新款户外休闲连帽长袖套头衫后背字母印花宽松上衣</t>
   </si>
   <si>
-    <t>338</t>
+    <t>378.00</t>
+  </si>
+  <si>
+    <t>178.00</t>
   </si>
   <si>
     <t>FE1824001</t>
@@ -214,7 +250,10 @@
     <t>运动羽绒服女秋冬款侧面拉链保暖衣户外跑步长袖连帽防风指洞外套</t>
   </si>
   <si>
-    <t>968</t>
+    <t>1018.00</t>
+  </si>
+  <si>
+    <t>488.00</t>
   </si>
   <si>
     <t>FJ1818701</t>
@@ -223,7 +262,10 @@
     <t>运动拉链外套女秋冬款黑色长袖连帽卫衣户外跑步训练休闲夹克抽绳</t>
   </si>
   <si>
-    <t>628</t>
+    <t>668.00</t>
+  </si>
+  <si>
+    <t>318.00</t>
   </si>
   <si>
     <t>FJ1818901</t>
@@ -238,7 +280,10 @@
     <t>运动外套女秋冬新款翻领休闲夹克瑜伽跑步训练卫衣拉链衫防风上衣</t>
   </si>
   <si>
-    <t>498</t>
+    <t>538.00</t>
+  </si>
+  <si>
+    <t>258.00</t>
   </si>
   <si>
     <t>FK1819601</t>
@@ -259,6 +304,12 @@
     <t>运动长裤女秋冬款宽松收口休闲裤瑜伽健身训练针织裤户外跑步卫裤</t>
   </si>
   <si>
+    <t>338.00</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
     <t>FP1819001</t>
   </si>
   <si>
@@ -289,7 +340,10 @@
     <t>卫裤女秋冬季棉质防风运动裤抽绳直筒修身束脚裤户外跑步休闲长裤</t>
   </si>
   <si>
-    <t>268</t>
+    <t>288.00</t>
+  </si>
+  <si>
+    <t>138.00</t>
   </si>
   <si>
     <t>FQ1817901</t>
@@ -298,7 +352,7 @@
     <t>运动裤女秋冬新款瑜伽跑步训练长裤直筒宽松休闲裤子棉质防风卫裤</t>
   </si>
   <si>
-    <t>378</t>
+    <t>189.00</t>
   </si>
   <si>
     <t>FQ1820901</t>
@@ -307,7 +361,10 @@
     <t>运动长裤女秋冬款宽松直筒休闲裤户外跑步训练针织卫裤健身瑜伽裤</t>
   </si>
   <si>
-    <t>308</t>
+    <t>328.00</t>
+  </si>
+  <si>
+    <t>158.00</t>
   </si>
   <si>
     <t>FU1821901</t>
@@ -316,9 +373,6 @@
     <t>运动长裤女秋冬季新款宽松直筒抽绳高腰瑜伽裤户外休闲简约阔腿裤</t>
   </si>
   <si>
-    <t>298</t>
-  </si>
-  <si>
     <t>FVE1807901</t>
   </si>
   <si>
@@ -367,7 +421,10 @@
     <t>运动茄克男秋冬新款长袖弹力休闲简约拉链卫衣青少年跑步运动外套</t>
   </si>
   <si>
-    <t>698</t>
+    <t>768.00</t>
+  </si>
+  <si>
+    <t>368.00</t>
   </si>
   <si>
     <t>MD1819401</t>
@@ -376,16 +433,13 @@
     <t>休闲卫衣男秋冬季新款圆领长袖弹力棉质青少年户外简约外穿套头衫</t>
   </si>
   <si>
-    <t>478</t>
-  </si>
-  <si>
     <t>MD1820401</t>
   </si>
   <si>
     <t>运动外套男士秋冬季棉质新款连帽拉链防风户外宽松休闲外穿上衣男</t>
   </si>
   <si>
-    <t>598</t>
+    <t>648.00</t>
   </si>
   <si>
     <t>MD1820601</t>
@@ -394,9 +448,6 @@
     <t>健身短袖男紧身速干篮球跑步教练吸汗半袖高弹力上衣训练运动t恤</t>
   </si>
   <si>
-    <t>348</t>
-  </si>
-  <si>
     <t>MD1820801</t>
   </si>
   <si>
@@ -421,9 +472,6 @@
     <t>运动夹克男秋冬新款宽松拉链长袖收口防风上衣户外休闲跑步外套</t>
   </si>
   <si>
-    <t>618</t>
-  </si>
-  <si>
     <t>MJ1817501</t>
   </si>
   <si>
@@ -496,9 +544,6 @@
     <t>卫裤男收口运动长裤篮球田径训练针织束脚休闲裤秋冬户外跑步棉裤</t>
   </si>
   <si>
-    <t>408</t>
-  </si>
-  <si>
     <t>MP1821001</t>
   </si>
   <si>
@@ -511,9 +556,6 @@
     <t>直筒卫裤男秋季户外跑步休闲裤腰间抽绳梭织裤篮球训练收口运动裤</t>
   </si>
   <si>
-    <t>329</t>
-  </si>
-  <si>
     <t>MQ1812501</t>
   </si>
   <si>
@@ -556,16 +598,16 @@
     <t>运动裤男秋冬季新款小脚修身健身裤侧边拉链字母印花户外训练长裤</t>
   </si>
   <si>
-    <t>248</t>
+    <t>268.00</t>
+  </si>
+  <si>
+    <t>128.00</t>
   </si>
   <si>
     <t>MQ1818701</t>
   </si>
   <si>
     <t>运动卫裤男秋季修身弹力小脚裤新款侧边拉链健身房训练跑步长裤男</t>
-  </si>
-  <si>
-    <t>258</t>
   </si>
   <si>
     <t>MQ1821101</t>
@@ -948,15 +990,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:D77"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="100" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="3" max="4" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -966,841 +1008,1048 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45" t="s">
+        <v>131</v>
+      </c>
+      <c r="C45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B47" t="s">
+        <v>135</v>
+      </c>
+      <c r="C47" t="s">
+        <v>136</v>
+      </c>
+      <c r="D47" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>138</v>
+      </c>
+      <c r="B48" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" t="s">
+        <v>31</v>
+      </c>
+      <c r="D48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>140</v>
+      </c>
+      <c r="B49" t="s">
+        <v>141</v>
+      </c>
+      <c r="C49" t="s">
+        <v>142</v>
+      </c>
+      <c r="D49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>143</v>
+      </c>
+      <c r="B50" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>145</v>
+      </c>
+      <c r="B51" t="s">
+        <v>146</v>
+      </c>
+      <c r="C51" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D51" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>147</v>
+      </c>
+      <c r="B52" t="s">
+        <v>148</v>
+      </c>
+      <c r="C52" t="s">
+        <v>89</v>
+      </c>
+      <c r="D52" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>149</v>
+      </c>
+      <c r="B53" t="s">
+        <v>150</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>151</v>
+      </c>
+      <c r="B54" t="s">
+        <v>152</v>
+      </c>
+      <c r="C54" t="s">
+        <v>83</v>
+      </c>
+      <c r="D54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>153</v>
+      </c>
+      <c r="B55" t="s">
+        <v>154</v>
+      </c>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>155</v>
+      </c>
+      <c r="B56" t="s">
+        <v>156</v>
+      </c>
+      <c r="C56" t="s">
+        <v>31</v>
+      </c>
+      <c r="D56" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>157</v>
+      </c>
+      <c r="B57" t="s">
+        <v>158</v>
+      </c>
+      <c r="C57" t="s">
+        <v>52</v>
+      </c>
+      <c r="D57" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>159</v>
+      </c>
+      <c r="B58" t="s">
+        <v>160</v>
+      </c>
+      <c r="C58" t="s">
+        <v>97</v>
+      </c>
+      <c r="D58" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>161</v>
+      </c>
+      <c r="B59" t="s">
+        <v>162</v>
+      </c>
+      <c r="C59" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>163</v>
+      </c>
+      <c r="B60" t="s">
+        <v>164</v>
+      </c>
+      <c r="C60" t="s">
+        <v>60</v>
+      </c>
+      <c r="D60" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>165</v>
+      </c>
+      <c r="B61" t="s">
+        <v>166</v>
+      </c>
+      <c r="C61" t="s">
+        <v>97</v>
+      </c>
+      <c r="D61" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>167</v>
+      </c>
+      <c r="B62" t="s">
+        <v>168</v>
+      </c>
+      <c r="C62" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>169</v>
+      </c>
+      <c r="B63" t="s">
+        <v>170</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>171</v>
+      </c>
+      <c r="B64" t="s">
+        <v>172</v>
+      </c>
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>173</v>
+      </c>
+      <c r="B65" t="s">
+        <v>174</v>
+      </c>
+      <c r="C65" t="s">
         <v>52</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D65" t="s">
         <v>53</v>
       </c>
-      <c r="C20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>175</v>
+      </c>
+      <c r="B66" t="s">
+        <v>176</v>
+      </c>
+      <c r="C66" t="s">
         <v>60</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D66" t="s">
         <v>61</v>
       </c>
-      <c r="C23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>177</v>
+      </c>
+      <c r="B67" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>179</v>
+      </c>
+      <c r="B68" t="s">
+        <v>180</v>
+      </c>
+      <c r="C68" t="s">
         <v>68</v>
       </c>
-      <c r="B26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="D68" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>181</v>
+      </c>
+      <c r="B69" t="s">
+        <v>182</v>
+      </c>
+      <c r="C69" t="s">
+        <v>97</v>
+      </c>
+      <c r="D69" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>183</v>
+      </c>
+      <c r="B70" t="s">
+        <v>184</v>
+      </c>
+      <c r="C70" t="s">
+        <v>97</v>
+      </c>
+      <c r="D70" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>185</v>
+      </c>
+      <c r="B71" t="s">
+        <v>186</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>187</v>
+      </c>
+      <c r="B72" t="s">
+        <v>188</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>189</v>
+      </c>
+      <c r="B73" t="s">
+        <v>190</v>
+      </c>
+      <c r="C73" t="s">
+        <v>52</v>
+      </c>
+      <c r="D73" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>191</v>
+      </c>
+      <c r="B74" t="s">
+        <v>192</v>
+      </c>
+      <c r="C74" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>193</v>
+      </c>
+      <c r="B75" t="s">
+        <v>194</v>
+      </c>
+      <c r="C75" t="s">
+        <v>195</v>
+      </c>
+      <c r="D75" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>197</v>
+      </c>
+      <c r="B76" t="s">
+        <v>198</v>
+      </c>
+      <c r="C76" t="s">
+        <v>109</v>
+      </c>
+      <c r="D76" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>199</v>
+      </c>
+      <c r="B77" t="s">
+        <v>200</v>
+      </c>
+      <c r="C77" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="D77" t="s">
         <v>76</v>
-      </c>
-      <c r="B29" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>84</v>
-      </c>
-      <c r="B33" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>86</v>
-      </c>
-      <c r="B34" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>88</v>
-      </c>
-      <c r="B35" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>90</v>
-      </c>
-      <c r="B36" t="s">
-        <v>91</v>
-      </c>
-      <c r="C36" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>93</v>
-      </c>
-      <c r="B37" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>96</v>
-      </c>
-      <c r="B38" t="s">
-        <v>97</v>
-      </c>
-      <c r="C38" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>99</v>
-      </c>
-      <c r="B39" t="s">
-        <v>100</v>
-      </c>
-      <c r="C39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>102</v>
-      </c>
-      <c r="B40" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>104</v>
-      </c>
-      <c r="B41" t="s">
-        <v>105</v>
-      </c>
-      <c r="C41" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>106</v>
-      </c>
-      <c r="B42" t="s">
-        <v>107</v>
-      </c>
-      <c r="C42" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>108</v>
-      </c>
-      <c r="B43" t="s">
-        <v>109</v>
-      </c>
-      <c r="C43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>110</v>
-      </c>
-      <c r="B44" t="s">
-        <v>111</v>
-      </c>
-      <c r="C44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>112</v>
-      </c>
-      <c r="B45" t="s">
-        <v>113</v>
-      </c>
-      <c r="C45" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>114</v>
-      </c>
-      <c r="B46" t="s">
-        <v>115</v>
-      </c>
-      <c r="C46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>116</v>
-      </c>
-      <c r="B47" t="s">
-        <v>117</v>
-      </c>
-      <c r="C47" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>119</v>
-      </c>
-      <c r="B48" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>122</v>
-      </c>
-      <c r="B49" t="s">
-        <v>123</v>
-      </c>
-      <c r="C49" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>125</v>
-      </c>
-      <c r="B50" t="s">
-        <v>126</v>
-      </c>
-      <c r="C50" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>128</v>
-      </c>
-      <c r="B51" t="s">
-        <v>129</v>
-      </c>
-      <c r="C51" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>130</v>
-      </c>
-      <c r="B52" t="s">
-        <v>131</v>
-      </c>
-      <c r="C52" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>132</v>
-      </c>
-      <c r="B53" t="s">
-        <v>133</v>
-      </c>
-      <c r="C53" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>134</v>
-      </c>
-      <c r="B54" t="s">
-        <v>135</v>
-      </c>
-      <c r="C54" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>137</v>
-      </c>
-      <c r="B55" t="s">
-        <v>138</v>
-      </c>
-      <c r="C55" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>139</v>
-      </c>
-      <c r="B56" t="s">
-        <v>140</v>
-      </c>
-      <c r="C56" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>141</v>
-      </c>
-      <c r="B57" t="s">
-        <v>142</v>
-      </c>
-      <c r="C57" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>143</v>
-      </c>
-      <c r="B58" t="s">
-        <v>144</v>
-      </c>
-      <c r="C58" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>145</v>
-      </c>
-      <c r="B59" t="s">
-        <v>146</v>
-      </c>
-      <c r="C59" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>147</v>
-      </c>
-      <c r="B60" t="s">
-        <v>148</v>
-      </c>
-      <c r="C60" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>149</v>
-      </c>
-      <c r="B61" t="s">
-        <v>150</v>
-      </c>
-      <c r="C61" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>151</v>
-      </c>
-      <c r="B62" t="s">
-        <v>152</v>
-      </c>
-      <c r="C62" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>153</v>
-      </c>
-      <c r="B63" t="s">
-        <v>154</v>
-      </c>
-      <c r="C63" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>155</v>
-      </c>
-      <c r="B64" t="s">
-        <v>156</v>
-      </c>
-      <c r="C64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>157</v>
-      </c>
-      <c r="B65" t="s">
-        <v>158</v>
-      </c>
-      <c r="C65" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>159</v>
-      </c>
-      <c r="B66" t="s">
-        <v>160</v>
-      </c>
-      <c r="C66" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>162</v>
-      </c>
-      <c r="B67" t="s">
-        <v>163</v>
-      </c>
-      <c r="C67" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>164</v>
-      </c>
-      <c r="B68" t="s">
-        <v>165</v>
-      </c>
-      <c r="C68" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>167</v>
-      </c>
-      <c r="B69" t="s">
-        <v>168</v>
-      </c>
-      <c r="C69" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>169</v>
-      </c>
-      <c r="B70" t="s">
-        <v>170</v>
-      </c>
-      <c r="C70" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>171</v>
-      </c>
-      <c r="B71" t="s">
-        <v>172</v>
-      </c>
-      <c r="C71" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>173</v>
-      </c>
-      <c r="B72" t="s">
-        <v>174</v>
-      </c>
-      <c r="C72" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>175</v>
-      </c>
-      <c r="B73" t="s">
-        <v>176</v>
-      </c>
-      <c r="C73" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>177</v>
-      </c>
-      <c r="B74" t="s">
-        <v>178</v>
-      </c>
-      <c r="C74" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>179</v>
-      </c>
-      <c r="B75" t="s">
-        <v>180</v>
-      </c>
-      <c r="C75" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>182</v>
-      </c>
-      <c r="B76" t="s">
-        <v>183</v>
-      </c>
-      <c r="C76" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>185</v>
-      </c>
-      <c r="B77" t="s">
-        <v>186</v>
-      </c>
-      <c r="C77" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
